--- a/solar/屏東.xlsx
+++ b/solar/屏東.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1B4D9-1DCE-47B7-895F-915B533F3EAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC8257-8F1E-45C0-8636-FDC2595903ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="68">
   <si>
     <t>//ψ = fi</t>
   </si>
@@ -270,6 +270,21 @@
   </si>
   <si>
     <t>一年最佳傾斜角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加總</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算加總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2014,6 +2029,430 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R = 0 ,變B一年總照射量'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>一年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>31.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.785699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.781300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.770800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.754300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.7318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.703299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.668700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.6281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.581600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD59-4518-BB29-3B5A88CF50C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1791754111"/>
+        <c:axId val="1842982159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1791754111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842982159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1842982159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791754111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2511,7 +2950,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -8580,6 +9019,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10939,6 +11418,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15982,6 +16977,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897CD3F-D268-4B6A-973D-CA0EAA87684A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -31335,8 +32366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F37F29C-9C02-4B0C-9152-84C1FBCFEC0D}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31583,7 +32614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2BF8E-4E30-4F32-9242-DD9AA2475459}">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>

--- a/solar/屏東.xlsx
+++ b/solar/屏東.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC8257-8F1E-45C0-8636-FDC2595903ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB18E63-CE3A-4D75-8A03-3EEC91B473B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="65">
   <si>
     <t>//ψ = fi</t>
   </si>
@@ -273,18 +273,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加總</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計算加總</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計數</t>
+    <t>一年最佳傾斜角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2964,83 +2953,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>太陽能板年總照射量在固定最佳傾斜角下對太陽能板方位角之變化</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>於台北之緯度</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3070,7 +2983,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3115,31 +3040,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.574400000000001</c:v>
+                  <c:v>2862.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.644300000000001</c:v>
+                  <c:v>2871.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.694700000000001</c:v>
+                  <c:v>2878.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.725000000000001</c:v>
+                  <c:v>2882.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.735199999999999</c:v>
+                  <c:v>2883.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.725000000000001</c:v>
+                  <c:v>2882.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.694700000000001</c:v>
+                  <c:v>2878.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.644300000000001</c:v>
+                  <c:v>2871.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.574400000000001</c:v>
+                  <c:v>2862.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,6 +3084,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1120822271"/>
         <c:axId val="1129651647"/>
@@ -3190,13 +3116,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>X:</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
                   <a:t>度</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3314,13 +3237,22 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>年總照射量</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Y:</a:t>
+                  <a:t>(</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>功率相對量</a:t>
+                  <a:t>相對量</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3385,6 +3317,443 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1120822271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B = 0,變R一年總照射量'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>一年最佳傾斜角</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'B = 0,變R一年總照射量'!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B = 0,變R一年總照射量'!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2883.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2886.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2887.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2889.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2889.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2890.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2889.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2888.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2887.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2885.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2882.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FADB-49A9-8749-6027B2A246C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1465150495"/>
+        <c:axId val="1347518047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1465150495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1347518047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1347518047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>各總總和之年總量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465150495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9059,6 +9428,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11934,7 +12343,7 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12042,11 +12451,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12057,11 +12461,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12093,9 +12492,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17057,15 +17956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17085,6 +17984,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16F8CBA-7076-4B8C-9967-9D3AA190F4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32366,7 +33301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F37F29C-9C02-4B0C-9152-84C1FBCFEC0D}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -32612,10 +33547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2BF8E-4E30-4F32-9242-DD9AA2475459}">
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22:Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32910,31 +33845,104 @@
         <v>63</v>
       </c>
       <c r="B6" s="2">
-        <v>31.574400000000001</v>
+        <v>2862.94</v>
       </c>
       <c r="C6" s="2">
-        <v>31.644300000000001</v>
+        <v>2871.85</v>
       </c>
       <c r="D6" s="2">
-        <v>31.694700000000001</v>
+        <v>2878.26</v>
       </c>
       <c r="E6" s="2">
-        <v>31.725000000000001</v>
+        <v>2882.12</v>
       </c>
       <c r="F6" s="2">
-        <v>31.735199999999999</v>
+        <v>2883.42</v>
       </c>
       <c r="G6" s="2">
-        <v>31.725000000000001</v>
+        <v>2882.12</v>
       </c>
       <c r="H6" s="2">
-        <v>31.694700000000001</v>
+        <v>2878.26</v>
       </c>
       <c r="I6" s="2">
-        <v>31.644300000000001</v>
+        <v>2871.85</v>
       </c>
       <c r="J6" s="2">
-        <v>31.574400000000001</v>
+        <v>2862.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2883.66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2886.04</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2887.87</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2889.15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2889.87</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2890.04</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2889.65</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2888.7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2887.2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2885.14</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2882.54</v>
       </c>
     </row>
   </sheetData>
